--- a/EFS/IPT_ACRM_EFS_Indice_150318.xlsx
+++ b/EFS/IPT_ACRM_EFS_Indice_150318.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="243">
   <si>
     <t>Cuando se establecen probabilidades en una oferta, deberia aparecer: (i) la probabilidad historica de conversión esa cuenta y (ii) probabilidad histórica historica del KAM</t>
   </si>
@@ -277,12 +277,6 @@
     <t>Responsables Comerciales Regionales</t>
   </si>
   <si>
-    <t>Soporte técnico a la venta (I+D)</t>
-  </si>
-  <si>
-    <t>Soporte logístico a la venta</t>
-  </si>
-  <si>
     <t>Futuros desarrollos</t>
   </si>
   <si>
@@ -697,9 +691,6 @@
     <t>Carlos Martínez</t>
   </si>
   <si>
-    <t>Personal de Post-Venta - SAT</t>
-  </si>
-  <si>
     <t>Eduardo Cordovín</t>
   </si>
   <si>
@@ -709,12 +700,6 @@
     <t>Mikel Borrega</t>
   </si>
   <si>
-    <t>Administrador IT / Configurador - CRM</t>
-  </si>
-  <si>
-    <t>CRM Assistant</t>
-  </si>
-  <si>
     <t>Andrea</t>
   </si>
   <si>
@@ -754,10 +739,19 @@
     <t>8-5</t>
   </si>
   <si>
-    <t>Personal de Post-Venta - Repuestos (AS-S)</t>
-  </si>
-  <si>
     <t>Personal de Back-Office (AP</t>
+  </si>
+  <si>
+    <t>Personal de Post-Venta SAT - Repuestos (AS-S)</t>
+  </si>
+  <si>
+    <t>Personal de Post-Venta SAT - Reparaciones (AS-R)</t>
+  </si>
+  <si>
+    <t>Administrador IT (Admin.CRM)</t>
+  </si>
+  <si>
+    <t>CRM Data Entry Assistant</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1341,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI169"/>
+  <dimension ref="A1:AI167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="15" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>5</v>
@@ -1379,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="26" t="s">
@@ -1404,19 +1398,19 @@
         <v>24</v>
       </c>
       <c r="Q1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>132</v>
-      </c>
       <c r="U1" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V1" s="26" t="s">
         <v>19</v>
@@ -1434,25 +1428,25 @@
         <v>26</v>
       </c>
       <c r="AA1" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="AB1" s="26" t="s">
-        <v>232</v>
-      </c>
       <c r="AC1" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AD1" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AE1" s="26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF1" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG1" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AI1" s="9" t="s">
         <v>56</v>
@@ -1472,21 +1466,21 @@
         <v>3</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="7"/>
       <c r="J3" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
@@ -1510,13 +1504,13 @@
       <c r="AF3" s="29"/>
       <c r="AG3" s="29"/>
       <c r="AI3" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="17">
@@ -1555,7 +1549,7 @@
     <row r="5" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="17">
@@ -1594,7 +1588,7 @@
     <row r="6" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="17">
@@ -1635,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="22"/>
@@ -1644,21 +1638,21 @@
         <v>4.5</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="7"/>
       <c r="J7" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -1686,7 +1680,7 @@
     <row r="8" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="17">
@@ -1721,13 +1715,13 @@
       <c r="AF8" s="29"/>
       <c r="AG8" s="29"/>
       <c r="AI8" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="17">
@@ -1762,13 +1756,13 @@
       <c r="AF9" s="29"/>
       <c r="AG9" s="29"/>
       <c r="AI9" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="17">
@@ -1803,14 +1797,14 @@
       <c r="AF10" s="29"/>
       <c r="AG10" s="29"/>
       <c r="AI10" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="17">
@@ -1846,7 +1840,7 @@
       <c r="AG11" s="30"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="23"/>
@@ -1863,21 +1857,21 @@
         <v>4</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="6"/>
       <c r="J12" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -1907,7 +1901,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="17">
@@ -1943,14 +1937,14 @@
       <c r="AG13" s="30"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="17">
@@ -1986,14 +1980,14 @@
       <c r="AG14" s="30"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="17">
@@ -2029,7 +2023,7 @@
       <c r="AG15" s="30"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2037,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
@@ -2046,21 +2040,21 @@
         <v>3</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="6"/>
       <c r="J16" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L16" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
@@ -2085,14 +2079,14 @@
       <c r="AG16" s="30"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="17">
@@ -2128,14 +2122,14 @@
       <c r="AG17" s="30"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="17">
@@ -2177,30 +2171,30 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="22"/>
       <c r="E19" s="10">
-        <f>SUM(E20:E30)</f>
-        <v>5.5</v>
+        <f>SUM(E20:E28)</f>
+        <v>4.5</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="7"/>
       <c r="J19" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
@@ -2224,13 +2218,13 @@
       <c r="AF19" s="29"/>
       <c r="AG19" s="29"/>
       <c r="AI19" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17">
@@ -2241,7 +2235,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="7"/>
       <c r="J20" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
@@ -2250,16 +2244,16 @@
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R20" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S20" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T20" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
@@ -2290,21 +2284,21 @@
       <c r="H21" s="17"/>
       <c r="I21" s="7"/>
       <c r="J21" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
@@ -2328,7 +2322,7 @@
     <row r="22" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17">
@@ -2339,7 +2333,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="7"/>
       <c r="J22" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -2369,7 +2363,7 @@
     <row r="23" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17">
@@ -2380,7 +2374,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="7"/>
       <c r="J23" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -2396,10 +2390,10 @@
       <c r="V23" s="29"/>
       <c r="W23" s="29"/>
       <c r="X23" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y23" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Z23" s="29"/>
       <c r="AA23" s="29"/>
@@ -2414,7 +2408,7 @@
     <row r="24" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17">
@@ -2425,7 +2419,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="7"/>
       <c r="J24" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
@@ -2437,27 +2431,27 @@
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
       <c r="T24" s="29"/>
-      <c r="U24" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="U24" s="29"/>
       <c r="V24" s="29"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
+      <c r="Y24" s="31"/>
       <c r="Z24" s="29"/>
       <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
+      <c r="AB24" s="31"/>
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
+      <c r="AE24" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF24" s="31"/>
       <c r="AG24" s="29"/>
       <c r="AI24" s="34"/>
     </row>
     <row r="25" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17">
@@ -2468,7 +2462,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="7"/>
       <c r="J25" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -2480,7 +2474,9 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
+      <c r="U25" s="31" t="s">
+        <v>133</v>
+      </c>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
@@ -2488,9 +2484,7 @@
       <c r="Z25" s="29"/>
       <c r="AA25" s="29"/>
       <c r="AB25" s="29"/>
-      <c r="AC25" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="AC25" s="29"/>
       <c r="AD25" s="29"/>
       <c r="AE25" s="29"/>
       <c r="AF25" s="29"/>
@@ -2500,7 +2494,7 @@
     <row r="26" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17">
@@ -2511,7 +2505,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="7"/>
       <c r="J26" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -2528,14 +2522,12 @@
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
       <c r="Y26" s="29"/>
-      <c r="Z26" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA26" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
       <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
+      <c r="AC26" s="31" t="s">
+        <v>133</v>
+      </c>
       <c r="AD26" s="29"/>
       <c r="AE26" s="29"/>
       <c r="AF26" s="29"/>
@@ -2545,7 +2537,7 @@
     <row r="27" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17">
@@ -2556,7 +2548,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="7"/>
       <c r="J27" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -2572,23 +2564,25 @@
       <c r="V27" s="29"/>
       <c r="W27" s="29"/>
       <c r="X27" s="29"/>
-      <c r="Y27" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="Y27" s="31"/>
       <c r="Z27" s="29"/>
       <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
+      <c r="AB27" s="31" t="s">
+        <v>133</v>
+      </c>
       <c r="AC27" s="29"/>
       <c r="AD27" s="29"/>
       <c r="AE27" s="29"/>
       <c r="AF27" s="29"/>
       <c r="AG27" s="29"/>
-      <c r="AI27" s="34"/>
+      <c r="AI27" s="34" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17">
@@ -2599,54 +2593,70 @@
       <c r="H28" s="17"/>
       <c r="I28" s="7"/>
       <c r="J28" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
+      <c r="L28" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>133</v>
+      </c>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="S28" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="T28" s="31" t="s">
+        <v>133</v>
+      </c>
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
       <c r="W28" s="29"/>
       <c r="X28" s="29"/>
-      <c r="Y28" s="31"/>
+      <c r="Y28" s="31" t="s">
+        <v>133</v>
+      </c>
       <c r="Z28" s="29"/>
       <c r="AA28" s="29"/>
       <c r="AB28" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AC28" s="29"/>
       <c r="AD28" s="29"/>
       <c r="AE28" s="29"/>
       <c r="AF28" s="29"/>
       <c r="AG28" s="29"/>
-      <c r="AI28" s="34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="AI28" s="34"/>
+    </row>
+    <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="E29" s="10">
+        <f>SUM(E30:E32)</f>
+        <v>9</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>207</v>
+      </c>
       <c r="H29" s="17"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="K29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
@@ -2660,97 +2670,73 @@
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
       <c r="X29" s="29"/>
-      <c r="Y29" s="31"/>
+      <c r="Y29" s="29"/>
       <c r="Z29" s="29"/>
       <c r="AA29" s="29"/>
-      <c r="AB29" s="31"/>
+      <c r="AB29" s="29"/>
       <c r="AC29" s="29"/>
       <c r="AD29" s="29"/>
-      <c r="AE29" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF29" s="31"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
       <c r="AG29" s="29"/>
-      <c r="AI29" s="34"/>
+      <c r="AI29" s="34" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
-      <c r="S30" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="T30" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
       <c r="U30" s="29"/>
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
       <c r="X30" s="29"/>
-      <c r="Y30" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="Y30" s="29"/>
       <c r="Z30" s="29"/>
       <c r="AA30" s="29"/>
-      <c r="AB30" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="AB30" s="29"/>
       <c r="AC30" s="29"/>
       <c r="AD30" s="29"/>
       <c r="AE30" s="29"/>
       <c r="AF30" s="29"/>
       <c r="AG30" s="29"/>
-      <c r="AI30" s="34"/>
-    </row>
-    <row r="31" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>6</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="7"/>
+      <c r="AI30" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="10">
-        <f>SUM(E32:E34)</f>
-        <v>9</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>209</v>
-      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="7"/>
       <c r="J31" s="29"/>
-      <c r="K31" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="K31" s="31"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
@@ -2773,25 +2759,23 @@
       <c r="AE31" s="29"/>
       <c r="AF31" s="29"/>
       <c r="AG31" s="29"/>
-      <c r="AI31" s="34" t="s">
-        <v>208</v>
-      </c>
+      <c r="AI31" s="34"/>
     </row>
     <row r="32" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="7"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="31"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
@@ -2815,23 +2799,39 @@
       <c r="AF32" s="29"/>
       <c r="AG32" s="29"/>
       <c r="AI32" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="E33" s="10">
+        <f>SUM(E34:E44)</f>
+        <v>17</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="H33" s="17"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="29"/>
+      <c r="J33" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
@@ -2853,12 +2853,14 @@
       <c r="AE33" s="29"/>
       <c r="AF33" s="29"/>
       <c r="AG33" s="29"/>
-      <c r="AI33" s="34"/>
+      <c r="AI33" s="34" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="34" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="17">
@@ -2892,40 +2894,24 @@
       <c r="AE34" s="29"/>
       <c r="AF34" s="29"/>
       <c r="AG34" s="29"/>
-      <c r="AI34" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="7"/>
+      <c r="AI34" s="34"/>
+    </row>
+    <row r="35" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="D35" s="22"/>
-      <c r="E35" s="10">
-        <f>SUM(E36:E46)</f>
-        <v>17</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>211</v>
-      </c>
+      <c r="E35" s="17">
+        <v>2</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
       <c r="O35" s="29"/>
@@ -2947,18 +2933,16 @@
       <c r="AE35" s="29"/>
       <c r="AF35" s="29"/>
       <c r="AG35" s="29"/>
-      <c r="AI35" s="34" t="s">
-        <v>210</v>
-      </c>
+      <c r="AI35" s="34"/>
     </row>
     <row r="36" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -2993,11 +2977,11 @@
     <row r="37" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -3032,11 +3016,11 @@
     <row r="38" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -3066,16 +3050,18 @@
       <c r="AE38" s="29"/>
       <c r="AF38" s="29"/>
       <c r="AG38" s="29"/>
-      <c r="AI38" s="34"/>
+      <c r="AI38" s="34" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -3110,11 +3096,11 @@
     <row r="40" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -3144,18 +3130,16 @@
       <c r="AE40" s="29"/>
       <c r="AF40" s="29"/>
       <c r="AG40" s="29"/>
-      <c r="AI40" s="34" t="s">
-        <v>62</v>
-      </c>
+      <c r="AI40" s="34"/>
     </row>
     <row r="41" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -3190,7 +3174,7 @@
     <row r="42" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="17">
@@ -3229,7 +3213,7 @@
     <row r="43" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="17">
@@ -3268,7 +3252,7 @@
     <row r="44" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="17">
@@ -3304,22 +3288,36 @@
       <c r="AG44" s="29"/>
       <c r="AI44" s="34"/>
     </row>
-    <row r="45" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
-        <v>3</v>
-      </c>
+    <row r="45" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>8</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="17">
-        <v>1</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="E45" s="10">
+        <f>SUM(E46:E72)</f>
+        <v>56</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>211</v>
+      </c>
       <c r="H45" s="17"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="J45" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
@@ -3341,16 +3339,18 @@
       <c r="AE45" s="29"/>
       <c r="AF45" s="29"/>
       <c r="AG45" s="29"/>
-      <c r="AI45" s="34"/>
-    </row>
-    <row r="46" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI45" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -3382,36 +3382,20 @@
       <c r="AG46" s="29"/>
       <c r="AI46" s="34"/>
     </row>
-    <row r="47" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>8</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>8</v>
-      </c>
+    <row r="47" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="10">
-        <f>SUM(E48:E74)</f>
-        <v>56</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="D47" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="L47" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
@@ -3434,13 +3418,13 @@
       <c r="AF47" s="29"/>
       <c r="AG47" s="29"/>
       <c r="AI47" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="17">
@@ -3480,7 +3464,7 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -3511,14 +3495,12 @@
       <c r="AE49" s="29"/>
       <c r="AF49" s="29"/>
       <c r="AG49" s="29"/>
-      <c r="AI49" s="34" t="s">
-        <v>145</v>
-      </c>
+      <c r="AI49" s="34"/>
     </row>
     <row r="50" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="17">
@@ -3558,7 +3540,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -3594,7 +3576,7 @@
     <row r="52" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="17">
@@ -3634,7 +3616,7 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -3670,11 +3652,11 @@
     <row r="54" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -3704,13 +3686,15 @@
       <c r="AE54" s="29"/>
       <c r="AF54" s="29"/>
       <c r="AG54" s="29"/>
-      <c r="AI54" s="34"/>
+      <c r="AI54" s="34" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="55" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="22" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -3743,15 +3727,13 @@
       <c r="AG55" s="29"/>
       <c r="AI55" s="34"/>
     </row>
-    <row r="56" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="17">
-        <v>10</v>
-      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -3780,15 +3762,13 @@
       <c r="AE56" s="29"/>
       <c r="AF56" s="29"/>
       <c r="AG56" s="29"/>
-      <c r="AI56" s="34" t="s">
-        <v>241</v>
-      </c>
+      <c r="AI56" s="34"/>
     </row>
     <row r="57" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -3825,7 +3805,7 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="22" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -3862,7 +3842,7 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="22" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -3893,13 +3873,15 @@
       <c r="AE59" s="29"/>
       <c r="AF59" s="29"/>
       <c r="AG59" s="29"/>
-      <c r="AI59" s="34"/>
+      <c r="AI59" s="34" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="60" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -3936,7 +3918,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="22" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -3967,15 +3949,13 @@
       <c r="AE61" s="29"/>
       <c r="AF61" s="29"/>
       <c r="AG61" s="29"/>
-      <c r="AI61" s="34" t="s">
-        <v>71</v>
-      </c>
+      <c r="AI61" s="34"/>
     </row>
     <row r="62" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="22" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -4008,13 +3988,15 @@
       <c r="AG62" s="29"/>
       <c r="AI62" s="34"/>
     </row>
-    <row r="63" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" s="17"/>
+      <c r="C63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="17">
+        <v>4</v>
+      </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -4043,13 +4025,15 @@
       <c r="AE63" s="29"/>
       <c r="AF63" s="29"/>
       <c r="AG63" s="29"/>
-      <c r="AI63" s="34"/>
+      <c r="AI63" s="34" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="64" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -4085,7 +4069,7 @@
     <row r="65" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="17">
@@ -4119,15 +4103,13 @@
       <c r="AE65" s="29"/>
       <c r="AF65" s="29"/>
       <c r="AG65" s="29"/>
-      <c r="AI65" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="AI65" s="34"/>
     </row>
     <row r="66" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -4203,7 +4185,7 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -4239,7 +4221,7 @@
     <row r="69" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="17">
@@ -4275,11 +4257,11 @@
       <c r="AG69" s="29"/>
       <c r="AI69" s="34"/>
     </row>
-    <row r="70" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -4312,10 +4294,10 @@
       <c r="AG70" s="29"/>
       <c r="AI70" s="34"/>
     </row>
-    <row r="71" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="17">
@@ -4353,11 +4335,13 @@
     </row>
     <row r="72" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="17"/>
+      <c r="C72" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="17">
+        <v>10</v>
+      </c>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -4388,15 +4372,13 @@
       <c r="AG72" s="29"/>
       <c r="AI72" s="34"/>
     </row>
-    <row r="73" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="17">
-        <v>4</v>
-      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -4427,15 +4409,13 @@
       <c r="AG73" s="29"/>
       <c r="AI73" s="34"/>
     </row>
-    <row r="74" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
-      <c r="C74" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="17">
-        <v>10</v>
-      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="17"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -4470,7 +4450,7 @@
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="22" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -4507,7 +4487,7 @@
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="22" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -4544,7 +4524,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="22" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -4577,20 +4557,36 @@
       <c r="AG77" s="29"/>
       <c r="AI77" s="34"/>
     </row>
-    <row r="78" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
+    <row r="78" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>9</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="10">
+        <f>SUM(E79:E89)</f>
+        <v>39</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>213</v>
+      </c>
       <c r="H78" s="17"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
+      <c r="J78" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K78" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L78" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
       <c r="O78" s="29"/>
@@ -4614,13 +4610,15 @@
       <c r="AG78" s="29"/>
       <c r="AI78" s="34"/>
     </row>
-    <row r="79" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79" s="17"/>
+      <c r="C79" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="17">
+        <v>5</v>
+      </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -4651,36 +4649,22 @@
       <c r="AG79" s="29"/>
       <c r="AI79" s="34"/>
     </row>
-    <row r="80" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+    <row r="80" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="7"/>
       <c r="D80" s="22"/>
-      <c r="E80" s="10">
-        <f>SUM(E81:E91)</f>
-        <v>39</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>215</v>
-      </c>
+      <c r="E80" s="17">
+        <v>5</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="17"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K80" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
       <c r="O80" s="29"/>
@@ -4704,15 +4688,13 @@
       <c r="AG80" s="29"/>
       <c r="AI80" s="34"/>
     </row>
-    <row r="81" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
-      <c r="C81" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="17">
-        <v>5</v>
-      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -4743,15 +4725,13 @@
       <c r="AG81" s="29"/>
       <c r="AI81" s="34"/>
     </row>
-    <row r="82" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
-      <c r="C82" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="17">
-        <v>5</v>
-      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
@@ -4782,13 +4762,15 @@
       <c r="AG82" s="29"/>
       <c r="AI82" s="34"/>
     </row>
-    <row r="83" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="17"/>
+      <c r="C83" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="17">
+        <v>5</v>
+      </c>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -4819,13 +4801,15 @@
       <c r="AG83" s="29"/>
       <c r="AI83" s="34"/>
     </row>
-    <row r="84" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E84" s="17"/>
+      <c r="C84" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="17">
+        <v>4</v>
+      </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4856,14 +4840,14 @@
       <c r="AG84" s="29"/>
       <c r="AI84" s="34"/>
     </row>
-    <row r="85" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
@@ -4898,7 +4882,7 @@
     <row r="86" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="17">
@@ -4937,11 +4921,11 @@
     <row r="87" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -4976,11 +4960,11 @@
     <row r="88" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -5010,16 +4994,18 @@
       <c r="AE88" s="29"/>
       <c r="AF88" s="29"/>
       <c r="AG88" s="29"/>
-      <c r="AI88" s="34"/>
+      <c r="AI88" s="34" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="89" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
@@ -5049,24 +5035,38 @@
       <c r="AE89" s="29"/>
       <c r="AF89" s="29"/>
       <c r="AG89" s="29"/>
-      <c r="AI89" s="34"/>
-    </row>
-    <row r="90" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="C90" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="AI89" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>10</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="7"/>
       <c r="D90" s="22"/>
-      <c r="E90" s="17">
-        <v>3</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
+      <c r="E90" s="10">
+        <f>SUM(E91:E103)</f>
+        <v>13</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="H90" s="17"/>
       <c r="I90" s="7"/>
-      <c r="J90" s="29"/>
+      <c r="J90" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
+      <c r="L90" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
       <c r="O90" s="29"/>
@@ -5088,18 +5088,16 @@
       <c r="AE90" s="29"/>
       <c r="AF90" s="29"/>
       <c r="AG90" s="29"/>
-      <c r="AI90" s="34" t="s">
-        <v>214</v>
-      </c>
+      <c r="AI90" s="34"/>
     </row>
     <row r="91" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -5129,38 +5127,24 @@
       <c r="AE91" s="29"/>
       <c r="AF91" s="29"/>
       <c r="AG91" s="29"/>
-      <c r="AI91" s="34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>10</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="7"/>
+      <c r="AI91" s="34"/>
+    </row>
+    <row r="92" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D92" s="22"/>
-      <c r="E92" s="10">
-        <f>SUM(E93:E105)</f>
-        <v>13</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>218</v>
-      </c>
+      <c r="E92" s="17">
+        <v>2</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J92" s="29"/>
       <c r="K92" s="29"/>
-      <c r="L92" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="L92" s="29"/>
       <c r="M92" s="29"/>
       <c r="N92" s="29"/>
       <c r="O92" s="29"/>
@@ -5187,11 +5171,11 @@
     <row r="93" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
@@ -5226,12 +5210,10 @@
     <row r="94" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="D94" s="22"/>
-      <c r="E94" s="17">
-        <v>2</v>
-      </c>
+      <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
@@ -5265,11 +5247,11 @@
     <row r="95" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
@@ -5304,10 +5286,12 @@
     <row r="96" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D96" s="22"/>
-      <c r="E96" s="17"/>
+      <c r="E96" s="17">
+        <v>0.5</v>
+      </c>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
@@ -5336,16 +5320,18 @@
       <c r="AE96" s="29"/>
       <c r="AF96" s="29"/>
       <c r="AG96" s="29"/>
-      <c r="AI96" s="34"/>
+      <c r="AI96" s="34" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="97" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="17">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -5379,13 +5365,11 @@
     </row>
     <row r="98" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
-      <c r="C98" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="17">
-        <v>0.5</v>
-      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
@@ -5414,19 +5398,15 @@
       <c r="AE98" s="29"/>
       <c r="AF98" s="29"/>
       <c r="AG98" s="29"/>
-      <c r="AI98" s="34" t="s">
-        <v>189</v>
-      </c>
+      <c r="AI98" s="34"/>
     </row>
     <row r="99" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
-      <c r="C99" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="17">
-        <v>7</v>
-      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
@@ -5461,7 +5441,7 @@
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
@@ -5498,7 +5478,7 @@
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
@@ -5535,7 +5515,7 @@
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
@@ -5572,7 +5552,7 @@
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
@@ -5605,20 +5585,36 @@
       <c r="AG103" s="29"/>
       <c r="AI103" s="34"/>
     </row>
-    <row r="104" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
+    <row r="104" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>11</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C104" s="7"/>
-      <c r="D104" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="10">
+        <f>SUM(E105:E111)</f>
+        <v>28</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="H104" s="17"/>
       <c r="I104" s="7"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
+      <c r="J104" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K104" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L104" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M104" s="29"/>
       <c r="N104" s="29"/>
       <c r="O104" s="29"/>
@@ -5644,11 +5640,13 @@
     </row>
     <row r="105" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" s="17"/>
+      <c r="C105" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="22"/>
+      <c r="E105" s="17">
+        <v>4</v>
+      </c>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
@@ -5679,36 +5677,22 @@
       <c r="AG105" s="29"/>
       <c r="AI105" s="34"/>
     </row>
-    <row r="106" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>11</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="7"/>
+    <row r="106" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
+      <c r="C106" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D106" s="22"/>
-      <c r="E106" s="10">
-        <f>SUM(E107:E113)</f>
-        <v>28</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="E106" s="17">
+        <v>4</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="7"/>
-      <c r="J106" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K106" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="L106" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
       <c r="M106" s="29"/>
       <c r="N106" s="29"/>
       <c r="O106" s="29"/>
@@ -5735,7 +5719,7 @@
     <row r="107" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="17">
@@ -5774,7 +5758,7 @@
     <row r="108" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="17">
@@ -5813,7 +5797,7 @@
     <row r="109" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D109" s="22"/>
       <c r="E109" s="17">
@@ -5852,7 +5836,7 @@
     <row r="110" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="17">
@@ -5891,7 +5875,7 @@
     <row r="111" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="17">
@@ -5927,22 +5911,32 @@
       <c r="AG111" s="29"/>
       <c r="AI111" s="34"/>
     </row>
-    <row r="112" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7" t="s">
-        <v>46</v>
-      </c>
+    <row r="112" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>12</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="7"/>
       <c r="D112" s="22"/>
-      <c r="E112" s="17">
-        <v>4</v>
-      </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
+      <c r="E112" s="10">
+        <f>SUM(E113:E125)</f>
+        <v>16</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="H112" s="17"/>
       <c r="I112" s="7"/>
       <c r="J112" s="29"/>
       <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
+      <c r="L112" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M112" s="29"/>
       <c r="N112" s="29"/>
       <c r="O112" s="29"/>
@@ -5968,8 +5962,8 @@
     </row>
     <row r="113" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
-      <c r="C113" s="7" t="s">
-        <v>47</v>
+      <c r="C113" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="D113" s="22"/>
       <c r="E113" s="17">
@@ -6005,32 +5999,22 @@
       <c r="AG113" s="29"/>
       <c r="AI113" s="34"/>
     </row>
-    <row r="114" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>12</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="10">
-        <f>SUM(E115:E127)</f>
-        <v>16</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>179</v>
-      </c>
+    <row r="114" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
+      <c r="C114" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="25"/>
+      <c r="E114" s="17">
+        <v>1</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="7"/>
       <c r="J114" s="29"/>
       <c r="K114" s="29"/>
-      <c r="L114" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="L114" s="29"/>
       <c r="M114" s="29"/>
       <c r="N114" s="29"/>
       <c r="O114" s="29"/>
@@ -6056,12 +6040,12 @@
     </row>
     <row r="115" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
-      <c r="C115" s="16" t="s">
-        <v>163</v>
+      <c r="C115" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D115" s="22"/>
       <c r="E115" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
@@ -6095,8 +6079,8 @@
     </row>
     <row r="116" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
-      <c r="C116" s="16" t="s">
-        <v>162</v>
+      <c r="C116" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D116" s="25"/>
       <c r="E116" s="17">
@@ -6135,11 +6119,11 @@
     <row r="117" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="17">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -6173,10 +6157,10 @@
     </row>
     <row r="118" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
-      <c r="C118" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" s="25"/>
+      <c r="C118" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="22"/>
       <c r="E118" s="17">
         <v>1</v>
       </c>
@@ -6213,13 +6197,15 @@
     <row r="119" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F119" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>159</v>
+      </c>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
       <c r="I119" s="7"/>
@@ -6252,11 +6238,11 @@
     <row r="120" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D120" s="22"/>
       <c r="E120" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
@@ -6291,15 +6277,13 @@
     <row r="121" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="C121" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="22"/>
       <c r="E121" s="17">
-        <v>1</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>161</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F121" s="17"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
       <c r="I121" s="7"/>
@@ -6332,7 +6316,7 @@
     <row r="122" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
       <c r="C122" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D122" s="22"/>
       <c r="E122" s="17">
@@ -6371,11 +6355,11 @@
     <row r="123" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
       <c r="C123" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
@@ -6410,11 +6394,11 @@
     <row r="124" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" s="7" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="D124" s="22"/>
       <c r="E124" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
@@ -6449,7 +6433,7 @@
     <row r="125" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="7" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="D125" s="22"/>
       <c r="E125" s="17">
@@ -6485,21 +6469,30 @@
       <c r="AG125" s="29"/>
       <c r="AI125" s="34"/>
     </row>
-    <row r="126" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
-      <c r="C126" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="126" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>13</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="7"/>
       <c r="D126" s="22"/>
-      <c r="E126" s="17">
-        <v>1</v>
-      </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
+      <c r="E126" s="10">
+        <v>2</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="H126" s="17"/>
       <c r="I126" s="7"/>
       <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
+      <c r="K126" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
       <c r="N126" s="29"/>
@@ -6524,20 +6517,30 @@
       <c r="AG126" s="29"/>
       <c r="AI126" s="34"/>
     </row>
-    <row r="127" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
-      <c r="C127" s="7" t="s">
-        <v>118</v>
-      </c>
+    <row r="127" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>14</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="7"/>
       <c r="D127" s="22"/>
-      <c r="E127" s="17">
-        <v>1</v>
-      </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
+      <c r="E127" s="10">
+        <f>SUM(E128:E132)</f>
+        <v>8</v>
+      </c>
+      <c r="F127" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="H127" s="17"/>
       <c r="I127" s="7"/>
-      <c r="J127" s="29"/>
+      <c r="J127" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="K127" s="29"/>
       <c r="L127" s="29"/>
       <c r="M127" s="29"/>
@@ -6563,30 +6566,21 @@
       <c r="AG127" s="29"/>
       <c r="AI127" s="34"/>
     </row>
-    <row r="128" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>13</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128" s="7"/>
+    <row r="128" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="D128" s="22"/>
-      <c r="E128" s="10">
-        <v>2</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>180</v>
-      </c>
+      <c r="E128" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
       <c r="H128" s="17"/>
       <c r="I128" s="7"/>
       <c r="J128" s="29"/>
-      <c r="K128" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="K128" s="29"/>
       <c r="L128" s="29"/>
       <c r="M128" s="29"/>
       <c r="N128" s="29"/>
@@ -6609,32 +6603,24 @@
       <c r="AE128" s="29"/>
       <c r="AF128" s="29"/>
       <c r="AG128" s="29"/>
-      <c r="AI128" s="34"/>
-    </row>
-    <row r="129" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>14</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C129" s="7"/>
+      <c r="AI128" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="D129" s="22"/>
-      <c r="E129" s="10">
-        <f>SUM(E130:E134)</f>
-        <v>8</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>180</v>
-      </c>
+      <c r="E129" s="17">
+        <v>1</v>
+      </c>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="7"/>
-      <c r="J129" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J129" s="29"/>
       <c r="K129" s="29"/>
       <c r="L129" s="29"/>
       <c r="M129" s="29"/>
@@ -6663,11 +6649,11 @@
     <row r="130" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="7" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D130" s="22"/>
       <c r="E130" s="17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
@@ -6697,14 +6683,12 @@
       <c r="AE130" s="29"/>
       <c r="AF130" s="29"/>
       <c r="AG130" s="29"/>
-      <c r="AI130" s="34" t="s">
-        <v>155</v>
-      </c>
+      <c r="AI130" s="34"/>
     </row>
     <row r="131" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D131" s="22"/>
       <c r="E131" s="17">
@@ -6741,13 +6725,13 @@
       <c r="AI131" s="34"/>
     </row>
     <row r="132" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="17">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
@@ -6777,24 +6761,36 @@
       <c r="AE132" s="29"/>
       <c r="AF132" s="29"/>
       <c r="AG132" s="29"/>
-      <c r="AI132" s="34"/>
-    </row>
-    <row r="133" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-      <c r="C133" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="AI132" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>15</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="7"/>
       <c r="D133" s="22"/>
-      <c r="E133" s="17">
-        <v>1</v>
-      </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
+      <c r="E133" s="10">
+        <f>SUM(E134:E135)</f>
+        <v>5</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="H133" s="17"/>
       <c r="I133" s="7"/>
       <c r="J133" s="29"/>
       <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
+      <c r="L133" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M133" s="29"/>
       <c r="N133" s="29"/>
       <c r="O133" s="29"/>
@@ -6818,14 +6814,14 @@
       <c r="AG133" s="29"/>
       <c r="AI133" s="34"/>
     </row>
-    <row r="134" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="7"/>
+    <row r="134" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
       <c r="C134" s="7" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D134" s="22"/>
       <c r="E134" s="17">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
@@ -6855,36 +6851,24 @@
       <c r="AE134" s="29"/>
       <c r="AF134" s="29"/>
       <c r="AG134" s="29"/>
-      <c r="AI134" s="34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
-        <v>15</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C135" s="7"/>
+      <c r="AI134" s="34"/>
+    </row>
+    <row r="135" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="6"/>
+      <c r="C135" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="D135" s="22"/>
-      <c r="E135" s="10">
-        <f>SUM(E136:E137)</f>
-        <v>5</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>181</v>
-      </c>
+      <c r="E135" s="17">
+        <v>1</v>
+      </c>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
       <c r="H135" s="17"/>
       <c r="I135" s="7"/>
       <c r="J135" s="29"/>
       <c r="K135" s="29"/>
-      <c r="L135" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="L135" s="29"/>
       <c r="M135" s="29"/>
       <c r="N135" s="29"/>
       <c r="O135" s="29"/>
@@ -6908,20 +6892,29 @@
       <c r="AG135" s="29"/>
       <c r="AI135" s="34"/>
     </row>
-    <row r="136" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
-      <c r="C136" s="7" t="s">
+    <row r="136" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>16</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="C136" s="7"/>
       <c r="D136" s="22"/>
-      <c r="E136" s="17">
-        <v>4</v>
-      </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
+      <c r="E136" s="10">
+        <v>1</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="H136" s="17"/>
       <c r="I136" s="7"/>
-      <c r="J136" s="29"/>
+      <c r="J136" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="K136" s="29"/>
       <c r="L136" s="29"/>
       <c r="M136" s="29"/>
@@ -6945,24 +6938,35 @@
       <c r="AE136" s="29"/>
       <c r="AF136" s="29"/>
       <c r="AG136" s="29"/>
-      <c r="AI136" s="34"/>
-    </row>
-    <row r="137" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
-      <c r="C137" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="AI136" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>17</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="22"/>
-      <c r="E137" s="17">
+      <c r="E137" s="10">
         <v>1</v>
       </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
+      <c r="F137" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="H137" s="17"/>
       <c r="I137" s="7"/>
       <c r="J137" s="29"/>
       <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
+      <c r="L137" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M137" s="29"/>
       <c r="N137" s="29"/>
       <c r="O137" s="29"/>
@@ -6984,31 +6988,22 @@
       <c r="AE137" s="29"/>
       <c r="AF137" s="29"/>
       <c r="AG137" s="29"/>
-      <c r="AI137" s="34"/>
-    </row>
-    <row r="138" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
-        <v>16</v>
-      </c>
-      <c r="B138" s="6" t="s">
+      <c r="AI137" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="C138" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="7"/>
       <c r="D138" s="22"/>
-      <c r="E138" s="10">
-        <v>1</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>181</v>
-      </c>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
       <c r="H138" s="17"/>
       <c r="I138" s="7"/>
-      <c r="J138" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J138" s="29"/>
       <c r="K138" s="29"/>
       <c r="L138" s="29"/>
       <c r="M138" s="29"/>
@@ -7032,35 +7027,22 @@
       <c r="AE138" s="29"/>
       <c r="AF138" s="29"/>
       <c r="AG138" s="29"/>
-      <c r="AI138" s="34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <v>17</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="7"/>
+      <c r="AI138" s="34"/>
+    </row>
+    <row r="139" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="6"/>
+      <c r="C139" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="D139" s="22"/>
-      <c r="E139" s="10">
-        <v>1</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G139" s="17" t="s">
-        <v>181</v>
-      </c>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
       <c r="H139" s="17"/>
       <c r="I139" s="7"/>
       <c r="J139" s="29"/>
       <c r="K139" s="29"/>
-      <c r="L139" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="L139" s="29"/>
       <c r="M139" s="29"/>
       <c r="N139" s="29"/>
       <c r="O139" s="29"/>
@@ -7082,24 +7064,34 @@
       <c r="AE139" s="29"/>
       <c r="AF139" s="29"/>
       <c r="AG139" s="29"/>
-      <c r="AI139" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
-      <c r="C140" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="AI139" s="34"/>
+    </row>
+    <row r="140" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>18</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="7"/>
       <c r="D140" s="22"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
+      <c r="E140" s="10">
+        <f>SUM(E141:E147)</f>
+        <v>27</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>180</v>
+      </c>
       <c r="H140" s="17"/>
       <c r="I140" s="7"/>
       <c r="J140" s="29"/>
       <c r="K140" s="29"/>
-      <c r="L140" s="29"/>
+      <c r="L140" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M140" s="29"/>
       <c r="N140" s="29"/>
       <c r="O140" s="29"/>
@@ -7121,15 +7113,19 @@
       <c r="AE140" s="29"/>
       <c r="AF140" s="29"/>
       <c r="AG140" s="29"/>
-      <c r="AI140" s="34"/>
+      <c r="AI140" s="34" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="141" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="6"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D141" s="22"/>
-      <c r="E141" s="17"/>
+      <c r="E141" s="17">
+        <v>4</v>
+      </c>
       <c r="F141" s="17"/>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
@@ -7160,32 +7156,22 @@
       <c r="AG141" s="29"/>
       <c r="AI141" s="34"/>
     </row>
-    <row r="142" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
-        <v>18</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C142" s="7"/>
+    <row r="142" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D142" s="22"/>
-      <c r="E142" s="10">
-        <f>SUM(E143:E149)</f>
-        <v>27</v>
-      </c>
-      <c r="F142" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G142" s="17" t="s">
-        <v>182</v>
-      </c>
+      <c r="E142" s="17">
+        <v>4</v>
+      </c>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
       <c r="H142" s="17"/>
       <c r="I142" s="7"/>
       <c r="J142" s="29"/>
       <c r="K142" s="29"/>
-      <c r="L142" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="L142" s="29"/>
       <c r="M142" s="29"/>
       <c r="N142" s="29"/>
       <c r="O142" s="29"/>
@@ -7207,14 +7193,12 @@
       <c r="AE142" s="29"/>
       <c r="AF142" s="29"/>
       <c r="AG142" s="29"/>
-      <c r="AI142" s="34" t="s">
-        <v>190</v>
-      </c>
+      <c r="AI142" s="34"/>
     </row>
     <row r="143" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="7" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="D143" s="22"/>
       <c r="E143" s="17">
@@ -7253,7 +7237,7 @@
     <row r="144" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
       <c r="C144" s="7" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="D144" s="22"/>
       <c r="E144" s="17">
@@ -7292,11 +7276,11 @@
     <row r="145" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="C145" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D145" s="22"/>
       <c r="E145" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
@@ -7331,11 +7315,11 @@
     <row r="146" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
       <c r="C146" s="7" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D146" s="22"/>
       <c r="E146" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
@@ -7370,11 +7354,11 @@
     <row r="147" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
       <c r="C147" s="7" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D147" s="22"/>
       <c r="E147" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
@@ -7406,22 +7390,35 @@
       <c r="AG147" s="29"/>
       <c r="AI147" s="34"/>
     </row>
-    <row r="148" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="7"/>
-      <c r="C148" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="148" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>19</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" s="7"/>
       <c r="D148" s="22"/>
-      <c r="E148" s="17">
-        <v>5</v>
-      </c>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
+      <c r="E148" s="10">
+        <v>2</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>181</v>
+      </c>
       <c r="H148" s="17"/>
       <c r="I148" s="7"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
+      <c r="J148" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K148" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L148" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M148" s="29"/>
       <c r="N148" s="29"/>
       <c r="O148" s="29"/>
@@ -7443,24 +7440,37 @@
       <c r="AE148" s="29"/>
       <c r="AF148" s="29"/>
       <c r="AG148" s="29"/>
-      <c r="AI148" s="34"/>
-    </row>
-    <row r="149" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="7"/>
-      <c r="C149" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="AI148" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>20</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149" s="7"/>
       <c r="D149" s="22"/>
-      <c r="E149" s="17">
-        <v>1</v>
-      </c>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
+      <c r="E149" s="10">
+        <v>4</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="H149" s="17"/>
       <c r="I149" s="7"/>
-      <c r="J149" s="29"/>
+      <c r="J149" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="K149" s="29"/>
-      <c r="L149" s="29"/>
+      <c r="L149" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="M149" s="29"/>
       <c r="N149" s="29"/>
       <c r="O149" s="29"/>
@@ -7484,35 +7494,20 @@
       <c r="AG149" s="29"/>
       <c r="AI149" s="34"/>
     </row>
-    <row r="150" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
-        <v>19</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C150" s="7"/>
+    <row r="150" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="6"/>
+      <c r="C150" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D150" s="22"/>
-      <c r="E150" s="10">
-        <v>2</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G150" s="17" t="s">
-        <v>183</v>
-      </c>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
       <c r="H150" s="17"/>
       <c r="I150" s="7"/>
-      <c r="J150" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K150" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="L150" s="28" t="s">
-        <v>135</v>
-      </c>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="29"/>
       <c r="M150" s="29"/>
       <c r="N150" s="29"/>
       <c r="O150" s="29"/>
@@ -7534,70 +7529,65 @@
       <c r="AE150" s="29"/>
       <c r="AF150" s="29"/>
       <c r="AG150" s="29"/>
-      <c r="AI150" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
-        <v>20</v>
-      </c>
+      <c r="AI150" s="34"/>
+    </row>
+    <row r="151" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
       <c r="B151" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="22"/>
+        <v>53</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="23"/>
       <c r="E151" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F151" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G151" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G151" s="17" t="s">
-        <v>184</v>
-      </c>
       <c r="H151" s="17"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K151" s="29"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="30"/>
       <c r="L151" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="M151" s="29"/>
-      <c r="N151" s="29"/>
-      <c r="O151" s="29"/>
-      <c r="P151" s="29"/>
-      <c r="Q151" s="29"/>
-      <c r="R151" s="29"/>
-      <c r="S151" s="29"/>
-      <c r="T151" s="29"/>
-      <c r="U151" s="29"/>
-      <c r="V151" s="29"/>
-      <c r="W151" s="29"/>
-      <c r="X151" s="29"/>
-      <c r="Y151" s="29"/>
-      <c r="Z151" s="29"/>
-      <c r="AA151" s="29"/>
-      <c r="AB151" s="29"/>
-      <c r="AC151" s="29"/>
-      <c r="AD151" s="29"/>
-      <c r="AE151" s="29"/>
-      <c r="AF151" s="29"/>
-      <c r="AG151" s="29"/>
-      <c r="AI151" s="34"/>
+        <v>133</v>
+      </c>
+      <c r="M151" s="30"/>
+      <c r="N151" s="30"/>
+      <c r="O151" s="30"/>
+      <c r="P151" s="30"/>
+      <c r="Q151" s="30"/>
+      <c r="R151" s="30"/>
+      <c r="S151" s="30"/>
+      <c r="T151" s="30"/>
+      <c r="U151" s="30"/>
+      <c r="V151" s="30"/>
+      <c r="W151" s="30"/>
+      <c r="X151" s="30"/>
+      <c r="Y151" s="30"/>
+      <c r="Z151" s="30"/>
+      <c r="AA151" s="30"/>
+      <c r="AB151" s="30"/>
+      <c r="AC151" s="30"/>
+      <c r="AD151" s="30"/>
+      <c r="AE151" s="30"/>
+      <c r="AF151" s="30"/>
+      <c r="AG151" s="30"/>
+      <c r="AH151" s="4"/>
+      <c r="AI151" s="35"/>
     </row>
     <row r="152" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D152" s="22"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="29"/>
       <c r="K152" s="29"/>
@@ -7625,57 +7615,49 @@
       <c r="AG152" s="29"/>
       <c r="AI152" s="34"/>
     </row>
-    <row r="153" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="B153" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="10">
-        <v>0</v>
-      </c>
-      <c r="F153" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G153" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="H153" s="17"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="30"/>
-      <c r="K153" s="30"/>
-      <c r="L153" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="M153" s="30"/>
-      <c r="N153" s="30"/>
-      <c r="O153" s="30"/>
-      <c r="P153" s="30"/>
-      <c r="Q153" s="30"/>
-      <c r="R153" s="30"/>
-      <c r="S153" s="30"/>
-      <c r="T153" s="30"/>
-      <c r="U153" s="30"/>
-      <c r="V153" s="30"/>
-      <c r="W153" s="30"/>
-      <c r="X153" s="30"/>
-      <c r="Y153" s="30"/>
-      <c r="Z153" s="30"/>
-      <c r="AA153" s="30"/>
-      <c r="AB153" s="30"/>
-      <c r="AC153" s="30"/>
-      <c r="AD153" s="30"/>
-      <c r="AE153" s="30"/>
-      <c r="AF153" s="30"/>
-      <c r="AG153" s="30"/>
-      <c r="AH153" s="4"/>
-      <c r="AI153" s="35"/>
+    <row r="153" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="7"/>
+      <c r="C153" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D153" s="22"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="29"/>
+      <c r="Q153" s="29"/>
+      <c r="R153" s="29"/>
+      <c r="S153" s="29"/>
+      <c r="T153" s="29"/>
+      <c r="U153" s="29"/>
+      <c r="V153" s="29"/>
+      <c r="W153" s="29"/>
+      <c r="X153" s="29"/>
+      <c r="Y153" s="29"/>
+      <c r="Z153" s="29"/>
+      <c r="AA153" s="29"/>
+      <c r="AB153" s="29"/>
+      <c r="AC153" s="29"/>
+      <c r="AD153" s="29"/>
+      <c r="AE153" s="29"/>
+      <c r="AF153" s="29"/>
+      <c r="AG153" s="29"/>
+      <c r="AI153" s="34" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="154" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="C154" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D154" s="22"/>
       <c r="E154" s="8"/>
@@ -7712,7 +7694,7 @@
     <row r="155" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
       <c r="C155" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D155" s="22"/>
       <c r="E155" s="8"/>
@@ -7744,159 +7726,83 @@
       <c r="AE155" s="29"/>
       <c r="AF155" s="29"/>
       <c r="AG155" s="29"/>
-      <c r="AI155" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="7"/>
-      <c r="C156" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D156" s="22"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
-      <c r="Q156" s="29"/>
-      <c r="R156" s="29"/>
-      <c r="S156" s="29"/>
-      <c r="T156" s="29"/>
-      <c r="U156" s="29"/>
-      <c r="V156" s="29"/>
-      <c r="W156" s="29"/>
-      <c r="X156" s="29"/>
-      <c r="Y156" s="29"/>
-      <c r="Z156" s="29"/>
-      <c r="AA156" s="29"/>
-      <c r="AB156" s="29"/>
-      <c r="AC156" s="29"/>
-      <c r="AD156" s="29"/>
-      <c r="AE156" s="29"/>
-      <c r="AF156" s="29"/>
-      <c r="AG156" s="29"/>
-      <c r="AI156" s="34"/>
-    </row>
-    <row r="157" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="7"/>
-      <c r="C157" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D157" s="22"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
-      <c r="Q157" s="29"/>
-      <c r="R157" s="29"/>
-      <c r="S157" s="29"/>
-      <c r="T157" s="29"/>
-      <c r="U157" s="29"/>
-      <c r="V157" s="29"/>
-      <c r="W157" s="29"/>
-      <c r="X157" s="29"/>
-      <c r="Y157" s="29"/>
-      <c r="Z157" s="29"/>
-      <c r="AA157" s="29"/>
-      <c r="AB157" s="29"/>
-      <c r="AC157" s="29"/>
-      <c r="AD157" s="29"/>
-      <c r="AE157" s="29"/>
-      <c r="AF157" s="29"/>
-      <c r="AG157" s="29"/>
-      <c r="AI157" s="34"/>
-    </row>
-    <row r="158" spans="1:35" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="E158" s="20">
-        <f>(SUM(E3:E153))/2</f>
-        <v>243</v>
+      <c r="AI155" s="34"/>
+    </row>
+    <row r="156" spans="1:35" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E156" s="20">
+        <f>(SUM(E3:E151))/2</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B157" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B158" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
-        <v>133</v>
+      <c r="B159" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="B162" s="12"/>
       <c r="D162" s="21" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="13"/>
+      <c r="D163" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="12"/>
+      <c r="B164" s="14"/>
       <c r="D164" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="13"/>
+      <c r="B165" s="11"/>
       <c r="D165" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="14"/>
-      <c r="D166" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="11"/>
+      <c r="B167" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D167" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D169" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.26" right="0.34" top="0.26" bottom="0.18" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E135 E114 E142 E12" formulaRange="1"/>
+    <ignoredError sqref="E133 E112 E140 E12" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7940,16 +7846,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7959,12 +7865,12 @@
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B3" s="38">
         <v>56</v>

--- a/EFS/IPT_ACRM_EFS_Indice_150318.xlsx
+++ b/EFS/IPT_ACRM_EFS_Indice_150318.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="2" r:id="rId1"/>
-    <sheet name="Requeremientos" sheetId="1" r:id="rId2"/>
+    <sheet name="Requerimientos" sheetId="1" r:id="rId2"/>
     <sheet name="Control de cambios" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="246">
   <si>
     <t>Cuando se establecen probabilidades en una oferta, deberia aparecer: (i) la probabilidad historica de conversión esa cuenta y (ii) probabilidad histórica historica del KAM</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Como back-office rechaza/devuelve un pedido al vendedor</t>
   </si>
   <si>
-    <t>O&amp;M + Regular Updates</t>
-  </si>
-  <si>
     <t>Exportar BDs a Excels</t>
   </si>
   <si>
@@ -752,6 +749,18 @@
   </si>
   <si>
     <t>CRM Data Entry Assistant</t>
+  </si>
+  <si>
+    <t>Operaciones y Mantenimiento + Regular Updates</t>
+  </si>
+  <si>
+    <t>Análisis, desarrollo, pruebas, puesta en marcha y mantenimiento</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Fase 1 comentarios</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:AI167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>5</v>
@@ -1373,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="26" t="s">
@@ -1398,19 +1407,19 @@
         <v>24</v>
       </c>
       <c r="Q1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="26" t="s">
-        <v>130</v>
-      </c>
       <c r="U1" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V1" s="26" t="s">
         <v>19</v>
@@ -1428,28 +1437,28 @@
         <v>26</v>
       </c>
       <c r="AA1" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="AB1" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>225</v>
-      </c>
       <c r="AF1" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG1" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="22"/>
@@ -1466,21 +1475,21 @@
         <v>3</v>
       </c>
       <c r="F3" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="7"/>
       <c r="J3" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
@@ -1504,13 +1513,13 @@
       <c r="AF3" s="29"/>
       <c r="AG3" s="29"/>
       <c r="AI3" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="17">
@@ -1546,10 +1555,10 @@
       <c r="AG4" s="29"/>
       <c r="AI4" s="34"/>
     </row>
-    <row r="5" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="17">
@@ -1585,10 +1594,10 @@
       <c r="AG5" s="29"/>
       <c r="AI5" s="34"/>
     </row>
-    <row r="6" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="17">
@@ -1624,12 +1633,12 @@
       <c r="AG6" s="29"/>
       <c r="AI6" s="34"/>
     </row>
-    <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="22"/>
@@ -1638,21 +1647,21 @@
         <v>4.5</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="7"/>
       <c r="J7" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -1677,10 +1686,10 @@
       <c r="AG7" s="29"/>
       <c r="AI7" s="34"/>
     </row>
-    <row r="8" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="17">
@@ -1715,13 +1724,13 @@
       <c r="AF8" s="29"/>
       <c r="AG8" s="29"/>
       <c r="AI8" s="34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="17">
@@ -1756,13 +1765,13 @@
       <c r="AF9" s="29"/>
       <c r="AG9" s="29"/>
       <c r="AI9" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="17">
@@ -1797,14 +1806,14 @@
       <c r="AF10" s="29"/>
       <c r="AG10" s="29"/>
       <c r="AI10" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="17">
@@ -1840,15 +1849,15 @@
       <c r="AG11" s="30"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="23"/>
@@ -1857,21 +1866,21 @@
         <v>4</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="6"/>
       <c r="J12" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -1901,7 +1910,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="17">
@@ -1937,14 +1946,14 @@
       <c r="AG13" s="30"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="17">
@@ -1980,14 +1989,14 @@
       <c r="AG14" s="30"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="17">
@@ -2023,7 +2032,7 @@
       <c r="AG15" s="30"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2031,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
@@ -2040,21 +2049,21 @@
         <v>3</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="6"/>
       <c r="J16" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
@@ -2079,14 +2088,14 @@
       <c r="AG16" s="30"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="17">
@@ -2122,14 +2131,14 @@
       <c r="AG17" s="30"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="5" customFormat="1" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="17">
@@ -2171,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="22"/>
@@ -2180,21 +2189,21 @@
         <v>4.5</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="7"/>
       <c r="J19" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
@@ -2218,13 +2227,13 @@
       <c r="AF19" s="29"/>
       <c r="AG19" s="29"/>
       <c r="AI19" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17">
@@ -2235,7 +2244,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="7"/>
       <c r="J20" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
@@ -2244,16 +2253,16 @@
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R20" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S20" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T20" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
@@ -2270,10 +2279,10 @@
       <c r="AG20" s="29"/>
       <c r="AI20" s="34"/>
     </row>
-    <row r="21" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17">
@@ -2284,21 +2293,21 @@
       <c r="H21" s="17"/>
       <c r="I21" s="7"/>
       <c r="J21" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
@@ -2319,10 +2328,10 @@
       <c r="AG21" s="29"/>
       <c r="AI21" s="34"/>
     </row>
-    <row r="22" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17">
@@ -2333,7 +2342,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="7"/>
       <c r="J22" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -2360,10 +2369,10 @@
       <c r="AG22" s="29"/>
       <c r="AI22" s="34"/>
     </row>
-    <row r="23" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17">
@@ -2374,7 +2383,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="7"/>
       <c r="J23" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -2390,10 +2399,10 @@
       <c r="V23" s="29"/>
       <c r="W23" s="29"/>
       <c r="X23" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y23" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z23" s="29"/>
       <c r="AA23" s="29"/>
@@ -2405,10 +2414,10 @@
       <c r="AG23" s="29"/>
       <c r="AI23" s="34"/>
     </row>
-    <row r="24" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17">
@@ -2419,7 +2428,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="7"/>
       <c r="J24" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
@@ -2442,16 +2451,16 @@
       <c r="AC24" s="29"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF24" s="31"/>
       <c r="AG24" s="29"/>
       <c r="AI24" s="34"/>
     </row>
-    <row r="25" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17">
@@ -2462,7 +2471,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="7"/>
       <c r="J25" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -2475,7 +2484,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
       <c r="U25" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
@@ -2491,10 +2500,10 @@
       <c r="AG25" s="29"/>
       <c r="AI25" s="34"/>
     </row>
-    <row r="26" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17">
@@ -2505,7 +2514,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="7"/>
       <c r="J26" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -2526,7 +2535,7 @@
       <c r="AA26" s="29"/>
       <c r="AB26" s="29"/>
       <c r="AC26" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD26" s="29"/>
       <c r="AE26" s="29"/>
@@ -2534,10 +2543,10 @@
       <c r="AG26" s="29"/>
       <c r="AI26" s="34"/>
     </row>
-    <row r="27" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17">
@@ -2548,7 +2557,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="7"/>
       <c r="J27" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -2568,7 +2577,7 @@
       <c r="Z27" s="29"/>
       <c r="AA27" s="29"/>
       <c r="AB27" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC27" s="29"/>
       <c r="AD27" s="29"/>
@@ -2576,13 +2585,13 @@
       <c r="AF27" s="29"/>
       <c r="AG27" s="29"/>
       <c r="AI27" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17">
@@ -2593,14 +2602,14 @@
       <c r="H28" s="17"/>
       <c r="I28" s="7"/>
       <c r="J28" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
@@ -2608,22 +2617,22 @@
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T28" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
       <c r="W28" s="29"/>
       <c r="X28" s="29"/>
       <c r="Y28" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z28" s="29"/>
       <c r="AA28" s="29"/>
       <c r="AB28" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC28" s="29"/>
       <c r="AD28" s="29"/>
@@ -2632,12 +2641,12 @@
       <c r="AG28" s="29"/>
       <c r="AI28" s="34"/>
     </row>
-    <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="22"/>
@@ -2646,16 +2655,16 @@
         <v>9</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="7"/>
       <c r="J29" s="29"/>
       <c r="K29" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -2680,13 +2689,13 @@
       <c r="AF29" s="29"/>
       <c r="AG29" s="29"/>
       <c r="AI29" s="34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17">
@@ -2721,13 +2730,13 @@
       <c r="AF30" s="29"/>
       <c r="AG30" s="29"/>
       <c r="AI30" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17"/>
@@ -2761,10 +2770,10 @@
       <c r="AG31" s="29"/>
       <c r="AI31" s="34"/>
     </row>
-    <row r="32" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17">
@@ -2799,15 +2808,15 @@
       <c r="AF32" s="29"/>
       <c r="AG32" s="29"/>
       <c r="AI32" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="22"/>
@@ -2816,21 +2825,21 @@
         <v>17</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="7"/>
       <c r="J33" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L33" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
@@ -2854,10 +2863,10 @@
       <c r="AF33" s="29"/>
       <c r="AG33" s="29"/>
       <c r="AI33" s="34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
         <v>4</v>
@@ -2896,10 +2905,10 @@
       <c r="AG34" s="29"/>
       <c r="AI34" s="34"/>
     </row>
-    <row r="35" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="17">
@@ -2935,10 +2944,10 @@
       <c r="AG35" s="29"/>
       <c r="AI35" s="34"/>
     </row>
-    <row r="36" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="17">
@@ -2974,10 +2983,10 @@
       <c r="AG36" s="29"/>
       <c r="AI36" s="34"/>
     </row>
-    <row r="37" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="17">
@@ -3013,7 +3022,7 @@
       <c r="AG37" s="29"/>
       <c r="AI37" s="34"/>
     </row>
-    <row r="38" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
         <v>31</v>
@@ -3051,10 +3060,10 @@
       <c r="AF38" s="29"/>
       <c r="AG38" s="29"/>
       <c r="AI38" s="34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
         <v>32</v>
@@ -3093,7 +3102,7 @@
       <c r="AG39" s="29"/>
       <c r="AI39" s="34"/>
     </row>
-    <row r="40" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>33</v>
@@ -3132,7 +3141,7 @@
       <c r="AG40" s="29"/>
       <c r="AI40" s="34"/>
     </row>
-    <row r="41" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -3171,7 +3180,7 @@
       <c r="AG41" s="29"/>
       <c r="AI41" s="34"/>
     </row>
-    <row r="42" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -3210,7 +3219,7 @@
       <c r="AG42" s="29"/>
       <c r="AI42" s="34"/>
     </row>
-    <row r="43" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
         <v>3</v>
@@ -3249,10 +3258,10 @@
       <c r="AG43" s="29"/>
       <c r="AI43" s="34"/>
     </row>
-    <row r="44" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="17">
@@ -3288,7 +3297,7 @@
       <c r="AG44" s="29"/>
       <c r="AI44" s="34"/>
     </row>
-    <row r="45" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -3302,21 +3311,21 @@
         <v>56</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="7"/>
       <c r="J45" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L45" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
@@ -3340,13 +3349,13 @@
       <c r="AF45" s="29"/>
       <c r="AG45" s="29"/>
       <c r="AI45" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="17">
@@ -3386,7 +3395,7 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -3418,13 +3427,13 @@
       <c r="AF47" s="29"/>
       <c r="AG47" s="29"/>
       <c r="AI47" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="17">
@@ -3464,7 +3473,7 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -3500,7 +3509,7 @@
     <row r="50" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="17">
@@ -3540,7 +3549,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -3576,7 +3585,7 @@
     <row r="52" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="17">
@@ -3616,7 +3625,7 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -3652,7 +3661,7 @@
     <row r="54" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="17">
@@ -3687,14 +3696,14 @@
       <c r="AF54" s="29"/>
       <c r="AG54" s="29"/>
       <c r="AI54" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -3731,7 +3740,7 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -3768,7 +3777,7 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -3805,7 +3814,7 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -3842,7 +3851,7 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -3874,14 +3883,14 @@
       <c r="AF59" s="29"/>
       <c r="AG59" s="29"/>
       <c r="AI59" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -3918,7 +3927,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -3955,7 +3964,7 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -3991,7 +4000,7 @@
     <row r="63" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="17">
@@ -4026,14 +4035,14 @@
       <c r="AF63" s="29"/>
       <c r="AG63" s="29"/>
       <c r="AI63" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -4069,7 +4078,7 @@
     <row r="65" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="17">
@@ -4109,7 +4118,7 @@
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -4145,7 +4154,7 @@
     <row r="67" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="17">
@@ -4185,7 +4194,7 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -4221,7 +4230,7 @@
     <row r="69" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="17">
@@ -4261,7 +4270,7 @@
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -4297,7 +4306,7 @@
     <row r="71" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="22"/>
       <c r="E71" s="17">
@@ -4336,7 +4345,7 @@
     <row r="72" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="17">
@@ -4376,7 +4385,7 @@
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -4413,7 +4422,7 @@
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
@@ -4450,7 +4459,7 @@
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -4487,7 +4496,7 @@
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -4524,7 +4533,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -4562,7 +4571,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="22"/>
@@ -4571,21 +4580,21 @@
         <v>39</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="7"/>
       <c r="J78" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L78" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
@@ -4613,7 +4622,7 @@
     <row r="79" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="17">
@@ -4692,7 +4701,7 @@
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -4729,7 +4738,7 @@
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -4765,7 +4774,7 @@
     <row r="83" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="17">
@@ -4804,7 +4813,7 @@
     <row r="84" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="17">
@@ -4843,7 +4852,7 @@
     <row r="85" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="17">
@@ -4882,7 +4891,7 @@
     <row r="86" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="17">
@@ -4960,7 +4969,7 @@
     <row r="88" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="17">
@@ -4995,13 +5004,13 @@
       <c r="AF88" s="29"/>
       <c r="AG88" s="29"/>
       <c r="AI88" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="17">
@@ -5036,7 +5045,7 @@
       <c r="AF89" s="29"/>
       <c r="AG89" s="29"/>
       <c r="AI89" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -5044,7 +5053,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="22"/>
@@ -5053,19 +5062,19 @@
         <v>13</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H90" s="17"/>
       <c r="I90" s="7"/>
       <c r="J90" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K90" s="29"/>
       <c r="L90" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
@@ -5093,7 +5102,7 @@
     <row r="91" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="17">
@@ -5171,7 +5180,7 @@
     <row r="93" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="17">
@@ -5210,7 +5219,7 @@
     <row r="94" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="17"/>
@@ -5247,7 +5256,7 @@
     <row r="95" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="17">
@@ -5286,7 +5295,7 @@
     <row r="96" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="17">
@@ -5321,13 +5330,13 @@
       <c r="AF96" s="29"/>
       <c r="AG96" s="29"/>
       <c r="AI96" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="17">
@@ -5367,7 +5376,7 @@
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
@@ -5404,7 +5413,7 @@
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
@@ -5441,7 +5450,7 @@
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
@@ -5478,7 +5487,7 @@
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
@@ -5515,7 +5524,7 @@
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
@@ -5552,7 +5561,7 @@
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
@@ -5590,7 +5599,7 @@
         <v>11</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="22"/>
@@ -5599,21 +5608,21 @@
         <v>28</v>
       </c>
       <c r="F104" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G104" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="H104" s="17"/>
       <c r="I104" s="7"/>
       <c r="J104" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K104" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L104" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M104" s="29"/>
       <c r="N104" s="29"/>
@@ -5641,7 +5650,7 @@
     <row r="105" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="17">
@@ -5680,7 +5689,7 @@
     <row r="106" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="17">
@@ -5719,7 +5728,7 @@
     <row r="107" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="17">
@@ -5758,7 +5767,7 @@
     <row r="108" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="17">
@@ -5836,7 +5845,7 @@
     <row r="110" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="17">
@@ -5875,7 +5884,7 @@
     <row r="111" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="17">
@@ -5925,17 +5934,17 @@
         <v>16</v>
       </c>
       <c r="F112" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G112" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="G112" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="H112" s="17"/>
       <c r="I112" s="7"/>
       <c r="J112" s="29"/>
       <c r="K112" s="29"/>
       <c r="L112" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M112" s="29"/>
       <c r="N112" s="29"/>
@@ -5963,7 +5972,7 @@
     <row r="113" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
       <c r="C113" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D113" s="22"/>
       <c r="E113" s="17">
@@ -6002,7 +6011,7 @@
     <row r="114" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
       <c r="C114" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="17">
@@ -6041,7 +6050,7 @@
     <row r="115" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D115" s="22"/>
       <c r="E115" s="17">
@@ -6080,7 +6089,7 @@
     <row r="116" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" s="25"/>
       <c r="E116" s="17">
@@ -6119,7 +6128,7 @@
     <row r="117" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="17">
@@ -6158,7 +6167,7 @@
     <row r="118" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D118" s="22"/>
       <c r="E118" s="17">
@@ -6204,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
@@ -6238,7 +6247,7 @@
     <row r="120" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D120" s="22"/>
       <c r="E120" s="17">
@@ -6316,7 +6325,7 @@
     <row r="122" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
       <c r="C122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="22"/>
       <c r="E122" s="17">
@@ -6433,7 +6442,7 @@
     <row r="125" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D125" s="22"/>
       <c r="E125" s="17">
@@ -6474,7 +6483,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="22"/>
@@ -6482,16 +6491,16 @@
         <v>2</v>
       </c>
       <c r="F126" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G126" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="H126" s="17"/>
       <c r="I126" s="7"/>
       <c r="J126" s="29"/>
       <c r="K126" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
@@ -6522,7 +6531,7 @@
         <v>14</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="22"/>
@@ -6531,15 +6540,15 @@
         <v>8</v>
       </c>
       <c r="F127" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G127" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="H127" s="17"/>
       <c r="I127" s="7"/>
       <c r="J127" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K127" s="29"/>
       <c r="L127" s="29"/>
@@ -6566,10 +6575,10 @@
       <c r="AG127" s="29"/>
       <c r="AI127" s="34"/>
     </row>
-    <row r="128" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D128" s="22"/>
       <c r="E128" s="17">
@@ -6604,13 +6613,13 @@
       <c r="AF128" s="29"/>
       <c r="AG128" s="29"/>
       <c r="AI128" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D129" s="22"/>
       <c r="E129" s="17">
@@ -6646,10 +6655,10 @@
       <c r="AG129" s="29"/>
       <c r="AI129" s="34"/>
     </row>
-    <row r="130" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D130" s="22"/>
       <c r="E130" s="17">
@@ -6685,10 +6694,10 @@
       <c r="AG130" s="29"/>
       <c r="AI130" s="34"/>
     </row>
-    <row r="131" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D131" s="22"/>
       <c r="E131" s="17">
@@ -6724,10 +6733,10 @@
       <c r="AG131" s="29"/>
       <c r="AI131" s="34"/>
     </row>
-    <row r="132" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
       <c r="C132" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="17">
@@ -6762,15 +6771,15 @@
       <c r="AF132" s="29"/>
       <c r="AG132" s="29"/>
       <c r="AI132" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>15</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="22"/>
@@ -6779,17 +6788,17 @@
         <v>5</v>
       </c>
       <c r="F133" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G133" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="7"/>
       <c r="J133" s="29"/>
       <c r="K133" s="29"/>
       <c r="L133" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M133" s="29"/>
       <c r="N133" s="29"/>
@@ -6817,7 +6826,7 @@
     <row r="134" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D134" s="22"/>
       <c r="E134" s="17">
@@ -6856,7 +6865,7 @@
     <row r="135" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D135" s="22"/>
       <c r="E135" s="17">
@@ -6897,7 +6906,7 @@
         <v>16</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="22"/>
@@ -6905,15 +6914,15 @@
         <v>1</v>
       </c>
       <c r="F136" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G136" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="7"/>
       <c r="J136" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K136" s="29"/>
       <c r="L136" s="29"/>
@@ -6939,7 +6948,7 @@
       <c r="AF136" s="29"/>
       <c r="AG136" s="29"/>
       <c r="AI136" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6947,7 +6956,7 @@
         <v>17</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="22"/>
@@ -6955,17 +6964,17 @@
         <v>1</v>
       </c>
       <c r="F137" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G137" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="H137" s="17"/>
       <c r="I137" s="7"/>
       <c r="J137" s="29"/>
       <c r="K137" s="29"/>
       <c r="L137" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M137" s="29"/>
       <c r="N137" s="29"/>
@@ -6989,13 +6998,13 @@
       <c r="AF137" s="29"/>
       <c r="AG137" s="29"/>
       <c r="AI137" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D138" s="22"/>
       <c r="E138" s="17"/>
@@ -7032,7 +7041,7 @@
     <row r="139" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D139" s="22"/>
       <c r="E139" s="17"/>
@@ -7071,7 +7080,7 @@
         <v>18</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="22"/>
@@ -7080,17 +7089,17 @@
         <v>27</v>
       </c>
       <c r="F140" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G140" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="H140" s="17"/>
       <c r="I140" s="7"/>
       <c r="J140" s="29"/>
       <c r="K140" s="29"/>
       <c r="L140" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M140" s="29"/>
       <c r="N140" s="29"/>
@@ -7114,13 +7123,13 @@
       <c r="AF140" s="29"/>
       <c r="AG140" s="29"/>
       <c r="AI140" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D141" s="22"/>
       <c r="E141" s="17">
@@ -7154,12 +7163,14 @@
       <c r="AE141" s="29"/>
       <c r="AF141" s="29"/>
       <c r="AG141" s="29"/>
-      <c r="AI141" s="34"/>
+      <c r="AI141" s="34" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="142" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D142" s="22"/>
       <c r="E142" s="17">
@@ -7198,7 +7209,7 @@
     <row r="143" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" s="7" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="D143" s="22"/>
       <c r="E143" s="17">
@@ -7237,7 +7248,7 @@
     <row r="144" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
       <c r="C144" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D144" s="22"/>
       <c r="E144" s="17">
@@ -7354,7 +7365,7 @@
     <row r="147" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
       <c r="C147" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D147" s="22"/>
       <c r="E147" s="17">
@@ -7395,7 +7406,7 @@
         <v>19</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="22"/>
@@ -7403,21 +7414,21 @@
         <v>2</v>
       </c>
       <c r="F148" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G148" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="H148" s="17"/>
       <c r="I148" s="7"/>
       <c r="J148" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K148" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L148" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M148" s="29"/>
       <c r="N148" s="29"/>
@@ -7441,7 +7452,7 @@
       <c r="AF148" s="29"/>
       <c r="AG148" s="29"/>
       <c r="AI148" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7449,7 +7460,7 @@
         <v>20</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="22"/>
@@ -7457,19 +7468,19 @@
         <v>4</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="7"/>
       <c r="J149" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K149" s="29"/>
       <c r="L149" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M149" s="29"/>
       <c r="N149" s="29"/>
@@ -7497,7 +7508,7 @@
     <row r="150" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D150" s="22"/>
       <c r="E150" s="17"/>
@@ -7534,7 +7545,7 @@
     <row r="151" spans="1:35" s="5" customFormat="1" ht="14.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="23"/>
@@ -7542,17 +7553,17 @@
         <v>0</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H151" s="17"/>
       <c r="I151" s="6"/>
       <c r="J151" s="30"/>
       <c r="K151" s="30"/>
       <c r="L151" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M151" s="30"/>
       <c r="N151" s="30"/>
@@ -7581,7 +7592,7 @@
     <row r="152" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D152" s="22"/>
       <c r="E152" s="8"/>
@@ -7618,7 +7629,7 @@
     <row r="153" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
       <c r="C153" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D153" s="22"/>
       <c r="E153" s="8"/>
@@ -7651,13 +7662,13 @@
       <c r="AF153" s="29"/>
       <c r="AG153" s="29"/>
       <c r="AI153" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="C154" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D154" s="22"/>
       <c r="E154" s="8"/>
@@ -7694,7 +7705,7 @@
     <row r="155" spans="1:35" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
       <c r="C155" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D155" s="22"/>
       <c r="E155" s="8"/>
@@ -7736,66 +7747,66 @@
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B159" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="12"/>
       <c r="D162" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="13"/>
       <c r="D163" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="14"/>
       <c r="D164" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
       <c r="D165" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7812,7 +7823,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7832,7 +7843,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7846,16 +7857,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="37" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>231</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7865,12 +7876,12 @@
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="38">
         <v>56</v>
@@ -7879,10 +7890,14 @@
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="38" t="s">
+        <v>244</v>
+      </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="D4" s="38" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
